--- a/docs/PTA2_DDC_40/PTA1_R5_BDDC_05.08.24_output.xlsx
+++ b/docs/PTA2_DDC_40/PTA1_R5_BDDC_05.08.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K108"/>
+  <dimension ref="A1:N108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,3057 +505,3631 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731365936.259375</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731365937.3129492</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731365936.259375.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731365937.3129492.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>279.2</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>278.55</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.6499999999999773</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731365937.762492</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731365937.8363633</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731365937.762492.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731365937.8363633.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>278</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>278.73</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.7300000000000182</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.26</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731365938.7738123</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731365941.4815788</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731365938.7738123.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731365941.4815788.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>277.93</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>277.99</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>0.06000000000000227</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731365943.6626635</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>./test_images/SBER1731365943.6626635.png</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731365943.6626635.png</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>277.73</v>
       </c>
-      <c r="J6" t="n">
-        <v>277.73</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
+      <c r="L6" t="n">
+        <v>275.69</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-2.04000000000002</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-0.73</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731365947.2064524</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731365948.659872</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731365947.2064524.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731365948.659872.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>128.35</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>128.09</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>-0.2599999999999909</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-0.2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731365949.3081386</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731365950.4398115</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731365949.3081386.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731365950.4398115.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>127.36</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>127.96</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.5999999999999943</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.47</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731365951.083138</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731365951.5155253</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731365951.083138.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731365951.5155253.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>128.1</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>128.08</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.01999999999998181</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731365952.1114132</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731365952.5513039</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731365952.1114132.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731365952.5513039.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>127.91</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>128.07</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>0.1599999999999966</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731365953.1181693</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731365953.7064219</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731365953.1181693.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731365953.7064219.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>128.21</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>128.03</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>0.1800000000000068</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731365954.4391565</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>./test_images/GAZP1731365954.4391565.png</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731365954.4391565.png</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>127.99</v>
       </c>
-      <c r="J12" t="n">
-        <v>127.99</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
+      <c r="L12" t="n">
+        <v>127.48</v>
+      </c>
+      <c r="M12" t="n">
+        <v>-0.5099999999999909</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-0.4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731365956.3880126</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731365956.9477167</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731365956.3880126.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731365956.9477167.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>6438.5</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>6416</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>22.5</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.35</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731365957.4181025</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731365958.328577</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731365957.4181025.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731365958.328577.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>6415</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>6419.5</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>4.5</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731365958.6388655</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731365958.8067658</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731365958.6388655.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731365958.8067658.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>6428.5</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>6416.5</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>12</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731365959.0108662</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731365960.58045</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731365959.0108662.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731365960.58045.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>6398</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>6426.5</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>28.5</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.45</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731365961.5655115</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731365962.518251</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731365961.5655115.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731365962.518251.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>6438.5</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>6434.5</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>4</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731365962.864466</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731365963.1655047</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731365962.864466.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731365963.1655047.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>6432</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>6438</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>6</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731365963.3666756</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731365964.4491289</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731365963.3666756.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731365964.4491289.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>6445.5</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>6440</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>5.5</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731365964.6763499</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1731365964.6763499.png</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1731365964.6763499.png</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>6436</v>
       </c>
-      <c r="J20" t="n">
-        <v>6436</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
+      <c r="L20" t="n">
+        <v>6394.5</v>
+      </c>
+      <c r="M20" t="n">
+        <v>-41.5</v>
+      </c>
+      <c r="N20" t="n">
+        <v>-0.64</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731365968.3435857</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731365968.6093583</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731365968.3435857.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731365968.6093583.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>498.3</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>497.75</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>0.5500000000000114</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731365968.7893562</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731365970.055456</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731365968.7893562.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731365970.055456.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>497.4</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>496.9</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>-0.5</v>
+      </c>
+      <c r="N22" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731365970.4534047</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731365971.28172</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731365970.4534047.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731365971.28172.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>497.05</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>497.25</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>-0.1999999999999886</v>
+      </c>
+      <c r="N23" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731365971.6226654</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731365972.1762059</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731365971.6226654.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731365972.1762059.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>496.95</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>497.65</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>0.6999999999999886</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731365972.4801564</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731365973.3183255</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731365972.4801564.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731365973.3183255.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>497.95</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>497.3</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>0.6499999999999773</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731365973.667535</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731365973.667535.png</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1731365973.667535.png</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>496.6</v>
       </c>
-      <c r="J26" t="n">
-        <v>496.6</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
+      <c r="L26" t="n">
+        <v>492.9</v>
+      </c>
+      <c r="M26" t="n">
+        <v>-3.700000000000045</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-0.75</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731365975.4318714</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731365975.9004276</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731365975.4318714.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731365975.9004276.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>224.93</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>224.25</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>0.6800000000000068</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731365977.09</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731365979.7101824</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731365977.09.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731365979.7101824.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>223.91</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>224.41</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>0.5</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731365979.998847</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731365981.54205</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731365979.998847.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731365981.54205.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>224.78</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>224.77</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>0.009999999999990905</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731365981.707701</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731365982.1208067</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731365981.707701.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731365982.1208067.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>224.48</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>225.15</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>0.6700000000000159</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731365983.5762289</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>./test_images/MOEX1731365983.5762289.png</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
+          <t>./test_images/MOEX1731365983.5762289.png</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>224.8</v>
       </c>
-      <c r="J31" t="n">
-        <v>224.8</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
+      <c r="L31" t="n">
+        <v>223.39</v>
+      </c>
+      <c r="M31" t="n">
+        <v>-1.410000000000025</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-0.63</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731365985.2479048</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731365986.062686</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731365985.2479048.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731365986.062686.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>1007.8</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>1007.2</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>0.5999999999999091</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731365986.4220324</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731365988.579925</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731365986.4220324.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731365988.579925.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>1005.6</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>1002.2</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>-3.399999999999977</v>
+      </c>
+      <c r="N33" t="n">
+        <v>-0.34</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731365989.1210835</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731365990.0429115</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731365989.1210835.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731365990.0429115.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>1006</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>1007.2</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>-1.200000000000045</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-0.12</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731365991.3236282</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731365991.367428</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731365991.3236282.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731365991.367428.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>1009.6</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>1009</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>0.6000000000000227</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731365991.684219</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731365993.0465508</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731365991.684219.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731365993.0465508.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>1008</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>1006.8</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>-1.200000000000045</v>
+      </c>
+      <c r="N36" t="n">
+        <v>-0.12</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731365996.4416487</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731365997.7944424</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/CNY1731365996.4416487.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/CNY1731365997.7944424.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>11.923</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>11.927</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>0.003999999999999559</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731365998.6279397</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731365998.7953026</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/CNY1731365998.6279397.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/CNY1731365998.7953026.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>11.927</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>11.924</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>0.003000000000000114</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731365999.314568</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>./test_images/CNY1731365999.314568.png</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
+          <t>./test_images/CNY1731365999.314568.png</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>11.927</v>
       </c>
-      <c r="J39" t="n">
-        <v>11.927</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
+      <c r="L39" t="n">
+        <v>11.928</v>
+      </c>
+      <c r="M39" t="n">
+        <v>-0.001000000000001222</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731366000.9414878</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731366001.3273273</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731366000.9414878.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731366001.3273273.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>124.2</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>124.44</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>0.2399999999999949</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731366002.0460837</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731366002.2745209</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731366002.0460837.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731366002.2745209.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>124.46</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>124.3</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>0.1599999999999966</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731366002.3462236</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731366003.0744352</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731366002.3462236.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731366003.0744352.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>124.22</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>124.14</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>-0.07999999999999829</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731366003.928004</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731366005.518773</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731366003.928004.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731366005.518773.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>124.34</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>124.42</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>-0.07999999999999829</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731366007.6909811</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731366007.9261</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731366007.6909811.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731366007.9261.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>124.3</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>124.42</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>0.1200000000000045</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731366008.962829</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>./test_images/GMKN1731366008.962829.png</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
+          <t>./test_images/GMKN1731366008.962829.png</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>124.18</v>
       </c>
-      <c r="J45" t="n">
-        <v>124.18</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0</v>
+      <c r="L45" t="n">
+        <v>124.14</v>
+      </c>
+      <c r="M45" t="n">
+        <v>-0.04000000000000625</v>
+      </c>
+      <c r="N45" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731366009.802735</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731366010.0260441</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731366009.802735.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731366010.0260441.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>161.44</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>160.8</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>0.6399999999999864</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731366011.6234806</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731366011.7634542</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731366011.6234806.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731366011.7634542.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>161.14</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>161.06</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>0.07999999999998408</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731366012.0932527</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731366014.3659582</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731366012.0932527.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731366014.3659582.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>160.9</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>160.6</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>-0.3000000000000114</v>
+      </c>
+      <c r="N48" t="n">
+        <v>-0.19</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731366014.6808844</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731366015.309971</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731366014.6808844.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731366015.309971.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>160.84</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>160.58</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>0.2599999999999909</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731366015.6964931</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731366016.6817665</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731366015.6964931.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731366016.6817665.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>160.94</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>160.88</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>0.06000000000000227</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731366017.112797</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731366018.1952457</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731366017.112797.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731366018.1952457.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>160.8</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>160.78</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>-0.02000000000001023</v>
+      </c>
+      <c r="N51" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731366018.6998146</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731366019.2549312</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731366018.6998146.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731366019.2549312.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>49.2</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>49.065</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>0.1350000000000051</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731366021.0686688</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731366021.1794224</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731366021.0686688.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731366021.1794224.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>48.93</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>49.01</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>0.07999999999999829</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731366021.2829628</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731366023.488118</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731366021.2829628.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731366023.488118.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>48.93</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>49.175</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>0.2449999999999974</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731366023.8525486</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731366024.8407683</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731366023.8525486.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731366024.8407683.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>49.195</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>49.17</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>0.02499999999999858</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731366025.1761065</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731366025.3020604</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731366025.1761065.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731366025.3020604.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>49.235</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>49.195</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>0.03999999999999915</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731366025.7779655</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731366026.7405179</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731366025.7779655.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731366026.7405179.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>49.16</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>49.075</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>-0.08499999999999375</v>
+      </c>
+      <c r="N57" t="n">
+        <v>-0.17</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731366027.1434948</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1731366027.1434948.png</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
+          <t>./test_images/MAGN1731366027.1434948.png</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>48.915</v>
       </c>
-      <c r="J58" t="n">
-        <v>48.915</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0</v>
+      <c r="L58" t="n">
+        <v>48.845</v>
+      </c>
+      <c r="M58" t="n">
+        <v>-0.07000000000000028</v>
+      </c>
+      <c r="N58" t="n">
+        <v>-0.14</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731366028.290257</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731366029.7469144</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731366028.290257.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731366029.7469144.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>1385</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>1382.6</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>2.400000000000091</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731366029.9466107</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731366030.360443</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731366029.9466107.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731366030.360443.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>1380.8</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>1382.6</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>1.799999999999955</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731366030.6129901</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731366032.7619483</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731366030.6129901.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731366032.7619483.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>1379.2</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>1377.4</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>-1.799999999999955</v>
+      </c>
+      <c r="N61" t="n">
+        <v>-0.13</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731366033.361687</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731366035.642121</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731366033.361687.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731366035.642121.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>1378.6</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>1379.8</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>-1.200000000000045</v>
+      </c>
+      <c r="N62" t="n">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731366036.262482</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731366036.5074263</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731366036.262482.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731366036.5074263.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>1378.4</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>1379.4</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>1</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731366037.0369108</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1731366037.4361124</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731366037.0369108.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731366037.4361124.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>1376.4</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>1378.8</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>2.399999999999864</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731366038.2427573</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1731366038.2427573.png</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr">
         <is>
+          <t>./test_images/CHMF1731366038.2427573.png</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>1375.4</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>1375.4</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
+        <v>0</v>
+      </c>
+      <c r="N65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3548,2019 +4137,2406 @@
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731366038.5745733</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1731366039.7313738</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731366038.5745733.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731366039.7313738.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>59.18</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>59.1</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>0.07999999999999829</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731366041.138615</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1731366041.1823862</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731366041.138615.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731366041.1823862.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>59.05</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>59.13</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>0.0800000000000054</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731366041.5095751</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1731366042.3509521</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731366041.5095751.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731366042.3509521.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>58.97</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>58.99</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>0.02000000000000313</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731366043.0879605</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>1731366044.3885984</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731366043.0879605.png</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731366044.3885984.png</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>59.55</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>59.58</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
         <v>-0.03000000000000114</v>
+      </c>
+      <c r="N69" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731366046.2190087</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>./test_images/ALRS1731366046.2190087.png</t>
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr">
         <is>
+          <t>./test_images/ALRS1731366046.2190087.png</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>59.52</v>
       </c>
-      <c r="J70" t="n">
-        <v>59.52</v>
-      </c>
-      <c r="K70" t="n">
-        <v>0</v>
+      <c r="L70" t="n">
+        <v>59.38</v>
+      </c>
+      <c r="M70" t="n">
+        <v>-0.1400000000000006</v>
+      </c>
+      <c r="N70" t="n">
+        <v>-0.24</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1731366048.639839</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>1731366051.0705903</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731366048.639839.png</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731366051.0705903.png</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>95.94</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>96.17</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>-0.230000000000004</v>
+      </c>
+      <c r="N71" t="n">
+        <v>-0.24</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1731366051.249204</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>./test_images/VTBR1731366051.249204.png</t>
         </is>
       </c>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr">
         <is>
+          <t>./test_images/VTBR1731366051.249204.png</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>96</v>
       </c>
-      <c r="J72" t="n">
-        <v>96</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0</v>
+      <c r="L72" t="n">
+        <v>95.63</v>
+      </c>
+      <c r="M72" t="n">
+        <v>-0.3700000000000045</v>
+      </c>
+      <c r="N72" t="n">
+        <v>-0.39</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1731366055.399502</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>1731366056.5745504</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>./test_images/SELG1731366055.399502.png</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>./test_images/SELG1731366056.5745504.png</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>55.7</v>
       </c>
-      <c r="J73" t="n">
+      <c r="L73" t="n">
         <v>56.01</v>
       </c>
-      <c r="K73" t="n">
+      <c r="M73" t="n">
         <v>0.3099999999999952</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0.5599999999999999</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1731366056.6500149</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>1731366056.847022</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>./test_images/SELG1731366056.6500149.png</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>./test_images/SELG1731366056.847022.png</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
         <v>56.05</v>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>55.93</v>
       </c>
-      <c r="K74" t="n">
+      <c r="M74" t="n">
         <v>0.1199999999999974</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>1731366057.207115</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>1731366058.5812201</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>./test_images/SELG1731366057.207115.png</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>./test_images/SELG1731366058.5812201.png</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
         <v>55.7</v>
       </c>
-      <c r="J75" t="n">
+      <c r="L75" t="n">
         <v>56.21</v>
       </c>
-      <c r="K75" t="n">
+      <c r="M75" t="n">
         <v>0.509999999999998</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0.9199999999999999</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>1731366062.704112</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>./test_images/SELG1731366062.704112.png</t>
         </is>
       </c>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr">
         <is>
+          <t>./test_images/SELG1731366062.704112.png</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
         <v>56.02</v>
       </c>
-      <c r="J76" t="n">
-        <v>56.02</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0</v>
+      <c r="L76" t="n">
+        <v>55.96</v>
+      </c>
+      <c r="M76" t="n">
+        <v>-0.06000000000000227</v>
+      </c>
+      <c r="N76" t="n">
+        <v>-0.11</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>1731366064.490849</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>1731366065.0313354</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731366064.490849.png</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731366065.0313354.png</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
         <v>139.7</v>
       </c>
-      <c r="J77" t="n">
+      <c r="L77" t="n">
         <v>140</v>
       </c>
-      <c r="K77" t="n">
+      <c r="M77" t="n">
         <v>0.3000000000000114</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>1731366065.811573</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>1731366067.2340941</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731366065.811573.png</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731366067.2340941.png</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
         <v>139.42</v>
       </c>
-      <c r="J78" t="n">
+      <c r="L78" t="n">
         <v>141.86</v>
       </c>
-      <c r="K78" t="n">
+      <c r="M78" t="n">
         <v>2.440000000000026</v>
+      </c>
+      <c r="N78" t="n">
+        <v>1.75</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>1731366067.8625546</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>1731366068.8174438</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731366067.8625546.png</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731366068.8174438.png</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
         <v>142.4</v>
       </c>
-      <c r="J79" t="n">
+      <c r="L79" t="n">
         <v>142.12</v>
       </c>
-      <c r="K79" t="n">
+      <c r="M79" t="n">
         <v>0.2800000000000011</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>1731366070.1178277</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>1731366070.41958</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731366070.1178277.png</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731366070.41958.png</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
         <v>141.92</v>
       </c>
-      <c r="J80" t="n">
+      <c r="L80" t="n">
         <v>142.44</v>
       </c>
-      <c r="K80" t="n">
+      <c r="M80" t="n">
         <v>0.5200000000000102</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0.37</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="n">
+        <v>79</v>
+      </c>
+      <c r="D81" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>1731366071.2351158</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr"/>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>./test_images/SOFL1731366071.2351158.png</t>
         </is>
       </c>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr">
         <is>
+          <t>./test_images/SOFL1731366071.2351158.png</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
         <v>141.76</v>
       </c>
-      <c r="J81" t="n">
-        <v>141.76</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0</v>
+      <c r="L81" t="n">
+        <v>141.34</v>
+      </c>
+      <c r="M81" t="n">
+        <v>-0.4199999999999875</v>
+      </c>
+      <c r="N81" t="n">
+        <v>-0.3</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" t="n">
+        <v>80</v>
+      </c>
+      <c r="D82" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>1731366073.9102032</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>1731366076.6187067</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731366073.9102032.png</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731366076.6187067.png</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
         <v>20.002</v>
       </c>
-      <c r="J82" t="n">
+      <c r="L82" t="n">
         <v>19.858</v>
       </c>
-      <c r="K82" t="n">
+      <c r="M82" t="n">
         <v>-0.1439999999999984</v>
+      </c>
+      <c r="N82" t="n">
+        <v>-0.72</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" t="n">
+        <v>81</v>
+      </c>
+      <c r="C83" t="n">
+        <v>81</v>
+      </c>
+      <c r="D83" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>1731366077.5073216</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>1731366078.319332</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731366077.5073216.png</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731366078.319332.png</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="I83" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
         <v>19.884</v>
       </c>
-      <c r="J83" t="n">
+      <c r="L83" t="n">
         <v>19.893</v>
       </c>
-      <c r="K83" t="n">
+      <c r="M83" t="n">
         <v>-0.009000000000000341</v>
+      </c>
+      <c r="N83" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" t="n">
+        <v>82</v>
+      </c>
+      <c r="C84" t="n">
+        <v>82</v>
+      </c>
+      <c r="D84" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>1731366079.400519</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>1731366080.8322449</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731366079.400519.png</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731366080.8322449.png</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
         <v>19.96</v>
       </c>
-      <c r="J84" t="n">
+      <c r="L84" t="n">
         <v>19.907</v>
       </c>
-      <c r="K84" t="n">
+      <c r="M84" t="n">
         <v>0.05300000000000082</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" t="n">
+        <v>83</v>
+      </c>
+      <c r="C85" t="n">
+        <v>83</v>
+      </c>
+      <c r="D85" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>1731366080.8807063</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>1731366081.5316422</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731366080.8807063.png</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731366081.5316422.png</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="I85" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
         <v>19.875</v>
       </c>
-      <c r="J85" t="n">
+      <c r="L85" t="n">
         <v>19.898</v>
       </c>
-      <c r="K85" t="n">
+      <c r="M85" t="n">
         <v>0.02299999999999969</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B86" t="n">
+        <v>84</v>
+      </c>
+      <c r="C86" t="n">
+        <v>84</v>
+      </c>
+      <c r="D86" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>1731366081.9355032</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr"/>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>./test_images/AFKS1731366081.9355032.png</t>
         </is>
       </c>
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr">
         <is>
+          <t>./test_images/AFKS1731366081.9355032.png</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
         <v>19.791</v>
       </c>
-      <c r="J86" t="n">
-        <v>19.791</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0</v>
+      <c r="L86" t="n">
+        <v>19.761</v>
+      </c>
+      <c r="M86" t="n">
+        <v>-0.03000000000000114</v>
+      </c>
+      <c r="N86" t="n">
+        <v>-0.15</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B87" t="n">
+        <v>85</v>
+      </c>
+      <c r="C87" t="n">
+        <v>85</v>
+      </c>
+      <c r="D87" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>1731366083.8367133</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>1731366084.1577218</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731366083.8367133.png</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731366084.1577218.png</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
         <v>650.7</v>
       </c>
-      <c r="J87" t="n">
+      <c r="L87" t="n">
         <v>651.4</v>
       </c>
-      <c r="K87" t="n">
+      <c r="M87" t="n">
         <v>0.6999999999999318</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88" t="n">
+        <v>86</v>
+      </c>
+      <c r="C88" t="n">
+        <v>86</v>
+      </c>
+      <c r="D88" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>1731366086.0523689</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>1731366086.3648896</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731366086.0523689.png</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731366086.3648896.png</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="I88" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I88" t="n">
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
         <v>656.1</v>
       </c>
-      <c r="J88" t="n">
+      <c r="L88" t="n">
         <v>656.85</v>
       </c>
-      <c r="K88" t="n">
+      <c r="M88" t="n">
         <v>0.75</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B89" t="n">
+        <v>87</v>
+      </c>
+      <c r="C89" t="n">
+        <v>87</v>
+      </c>
+      <c r="D89" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>1731366086.8367784</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>1731366088.3129609</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731366086.8367784.png</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="H89" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731366088.3129609.png</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="I89" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I89" t="n">
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
         <v>658.35</v>
       </c>
-      <c r="J89" t="n">
+      <c r="L89" t="n">
         <v>659.8</v>
       </c>
-      <c r="K89" t="n">
+      <c r="M89" t="n">
         <v>-1.449999999999932</v>
+      </c>
+      <c r="N89" t="n">
+        <v>-0.22</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B90" t="n">
+        <v>88</v>
+      </c>
+      <c r="C90" t="n">
+        <v>88</v>
+      </c>
+      <c r="D90" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>1731366090.4369733</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr"/>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>./test_images/SIBN1731366090.4369733.png</t>
         </is>
       </c>
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr">
         <is>
+          <t>./test_images/SIBN1731366090.4369733.png</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I90" t="n">
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
         <v>659.9</v>
       </c>
-      <c r="J90" t="n">
-        <v>659.9</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0</v>
+      <c r="L90" t="n">
+        <v>657</v>
+      </c>
+      <c r="M90" t="n">
+        <v>-2.899999999999977</v>
+      </c>
+      <c r="N90" t="n">
+        <v>-0.44</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B91" t="n">
+        <v>89</v>
+      </c>
+      <c r="C91" t="n">
+        <v>89</v>
+      </c>
+      <c r="D91" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>1731366093.5622356</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>1731366094.19925</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731366093.5622356.png</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731366094.19925.png</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
+      <c r="I91" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I91" t="n">
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
         <v>155.27</v>
       </c>
-      <c r="J91" t="n">
+      <c r="L91" t="n">
         <v>154.94</v>
       </c>
-      <c r="K91" t="n">
+      <c r="M91" t="n">
         <v>0.3300000000000125</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B92" t="n">
+        <v>90</v>
+      </c>
+      <c r="C92" t="n">
+        <v>90</v>
+      </c>
+      <c r="D92" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>1731366095.0471122</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>1731366095.691925</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731366095.0471122.png</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="H92" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731366095.691925.png</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
+      <c r="I92" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I92" t="n">
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
         <v>155.87</v>
       </c>
-      <c r="J92" t="n">
+      <c r="L92" t="n">
         <v>155.31</v>
       </c>
-      <c r="K92" t="n">
+      <c r="M92" t="n">
         <v>0.5600000000000023</v>
+      </c>
+      <c r="N92" t="n">
+        <v>0.36</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B93" t="n">
+        <v>91</v>
+      </c>
+      <c r="C93" t="n">
+        <v>91</v>
+      </c>
+      <c r="D93" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>1731366096.5731037</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr"/>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>./test_images/MTLR1731366096.5731037.png</t>
         </is>
       </c>
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr">
         <is>
+          <t>./test_images/MTLR1731366096.5731037.png</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I93" t="n">
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
         <v>155.03</v>
       </c>
-      <c r="J93" t="n">
-        <v>155.03</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0</v>
+      <c r="L93" t="n">
+        <v>153.97</v>
+      </c>
+      <c r="M93" t="n">
+        <v>-1.060000000000002</v>
+      </c>
+      <c r="N93" t="n">
+        <v>-0.6799999999999999</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B94" t="n">
+        <v>92</v>
+      </c>
+      <c r="C94" t="n">
+        <v>92</v>
+      </c>
+      <c r="D94" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>1731366098.6245475</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>1731366099.235042</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>./test_images/FEES1731366098.6245475.png</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="H94" t="inlineStr">
         <is>
           <t>./test_images/FEES1731366099.235042.png</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
+      <c r="I94" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I94" t="n">
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
         <v>0.09580000000000001</v>
       </c>
-      <c r="J94" t="n">
+      <c r="L94" t="n">
         <v>0.0956</v>
       </c>
-      <c r="K94" t="n">
+      <c r="M94" t="n">
         <v>0.0002000000000000057</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B95" t="n">
+        <v>93</v>
+      </c>
+      <c r="C95" t="n">
+        <v>93</v>
+      </c>
+      <c r="D95" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>1731366099.6818192</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>1731366100.819749</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>./test_images/FEES1731366099.6818192.png</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="H95" t="inlineStr">
         <is>
           <t>./test_images/FEES1731366100.819749.png</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
+      <c r="I95" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I95" t="n">
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
         <v>0.09554000000000001</v>
       </c>
-      <c r="J95" t="n">
+      <c r="L95" t="n">
         <v>0.0956</v>
       </c>
-      <c r="K95" t="n">
+      <c r="M95" t="n">
         <v>5.999999999999062e-05</v>
+      </c>
+      <c r="N95" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B96" t="n">
+        <v>94</v>
+      </c>
+      <c r="C96" t="n">
+        <v>94</v>
+      </c>
+      <c r="D96" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>1731366100.9880686</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>1731366101.253637</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>./test_images/FEES1731366100.9880686.png</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="H96" t="inlineStr">
         <is>
           <t>./test_images/FEES1731366101.253637.png</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
+      <c r="I96" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I96" t="n">
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
         <v>0.095</v>
       </c>
-      <c r="J96" t="n">
+      <c r="L96" t="n">
         <v>0.09530000000000001</v>
       </c>
-      <c r="K96" t="n">
+      <c r="M96" t="n">
         <v>0.0003000000000000086</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0.32</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B97" t="n">
+        <v>95</v>
+      </c>
+      <c r="C97" t="n">
+        <v>95</v>
+      </c>
+      <c r="D97" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>1731366103.4178624</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>1731366105.8279912</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>./test_images/FEES1731366103.4178624.png</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="H97" t="inlineStr">
         <is>
           <t>./test_images/FEES1731366105.8279912.png</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
+      <c r="I97" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I97" t="n">
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
         <v>0.09518000000000001</v>
       </c>
-      <c r="J97" t="n">
+      <c r="L97" t="n">
         <v>0.09554000000000001</v>
       </c>
-      <c r="K97" t="n">
+      <c r="M97" t="n">
         <v>-0.0003599999999999992</v>
+      </c>
+      <c r="N97" t="n">
+        <v>-0.38</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="B98" t="n">
+        <v>96</v>
+      </c>
+      <c r="C98" t="n">
+        <v>96</v>
+      </c>
+      <c r="D98" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>1731366106.0330448</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr"/>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>./test_images/FEES1731366106.0330448.png</t>
         </is>
       </c>
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr">
         <is>
+          <t>./test_images/FEES1731366106.0330448.png</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I98" t="n">
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
         <v>0.09538000000000001</v>
       </c>
-      <c r="J98" t="n">
-        <v>0.09538000000000001</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0</v>
+      <c r="L98" t="n">
+        <v>0.09504</v>
+      </c>
+      <c r="M98" t="n">
+        <v>-0.000340000000000007</v>
+      </c>
+      <c r="N98" t="n">
+        <v>-0.36</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B99" t="n">
+        <v>97</v>
+      </c>
+      <c r="C99" t="n">
+        <v>97</v>
+      </c>
+      <c r="D99" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>1731366107.7536066</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>1731366108.2755737</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731366107.7536066.png</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="H99" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731366108.2755737.png</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
+      <c r="I99" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I99" t="n">
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
         <v>95.94</v>
       </c>
-      <c r="J99" t="n">
+      <c r="L99" t="n">
         <v>95.51000000000001</v>
       </c>
-      <c r="K99" t="n">
+      <c r="M99" t="n">
         <v>0.4299999999999926</v>
+      </c>
+      <c r="N99" t="n">
+        <v>0.45</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="B100" t="n">
+        <v>98</v>
+      </c>
+      <c r="C100" t="n">
+        <v>98</v>
+      </c>
+      <c r="D100" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>1731366109.2705762</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr"/>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>./test_images/HYDR1731366109.2705762.png</t>
         </is>
       </c>
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr">
         <is>
+          <t>./test_images/HYDR1731366109.2705762.png</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I100" t="n">
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
         <v>95.44</v>
       </c>
-      <c r="J100" t="n">
-        <v>95.44</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0</v>
+      <c r="L100" t="n">
+        <v>94.73</v>
+      </c>
+      <c r="M100" t="n">
+        <v>-0.7099999999999937</v>
+      </c>
+      <c r="N100" t="n">
+        <v>-0.74</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="B101" t="n">
+        <v>99</v>
+      </c>
+      <c r="C101" t="n">
+        <v>99</v>
+      </c>
+      <c r="D101" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>1731366113.4060304</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>1731366116.6336193</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="G101" t="inlineStr">
         <is>
           <t>./test_images/MXI1731366113.4060304.png</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="H101" t="inlineStr">
         <is>
           <t>./test_images/MXI1731366116.6336193.png</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr">
+      <c r="I101" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I101" t="n">
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
         <v>2896.25</v>
       </c>
-      <c r="J101" t="n">
+      <c r="L101" t="n">
         <v>2897.95</v>
       </c>
-      <c r="K101" t="n">
+      <c r="M101" t="n">
         <v>1.699999999999818</v>
+      </c>
+      <c r="N101" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="B102" t="inlineStr">
+      <c r="B102" t="n">
+        <v>100</v>
+      </c>
+      <c r="C102" t="n">
+        <v>100</v>
+      </c>
+      <c r="D102" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>1731366116.8565874</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="F102" t="inlineStr">
         <is>
           <t>1731366118.0406108</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="G102" t="inlineStr">
         <is>
           <t>./test_images/MXI1731366116.8565874.png</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
+      <c r="H102" t="inlineStr">
         <is>
           <t>./test_images/MXI1731366118.0406108.png</t>
         </is>
       </c>
-      <c r="G102" t="inlineStr">
+      <c r="I102" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I102" t="n">
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
         <v>2901.45</v>
       </c>
-      <c r="J102" t="n">
+      <c r="L102" t="n">
         <v>2901.25</v>
       </c>
-      <c r="K102" t="n">
+      <c r="M102" t="n">
         <v>0.1999999999998181</v>
+      </c>
+      <c r="N102" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="B103" t="inlineStr">
+      <c r="B103" t="n">
+        <v>101</v>
+      </c>
+      <c r="C103" t="n">
+        <v>101</v>
+      </c>
+      <c r="D103" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
+      <c r="E103" t="inlineStr">
         <is>
           <t>1731366118.480598</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="F103" t="inlineStr">
         <is>
           <t>1731366118.6357281</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
+      <c r="G103" t="inlineStr">
         <is>
           <t>./test_images/MXI1731366118.480598.png</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
+      <c r="H103" t="inlineStr">
         <is>
           <t>./test_images/MXI1731366118.6357281.png</t>
         </is>
       </c>
-      <c r="G103" t="inlineStr">
+      <c r="I103" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I103" t="n">
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
         <v>2904.9</v>
       </c>
-      <c r="J103" t="n">
+      <c r="L103" t="n">
         <v>2901.8</v>
       </c>
-      <c r="K103" t="n">
+      <c r="M103" t="n">
         <v>3.099999999999909</v>
+      </c>
+      <c r="N103" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="B104" t="inlineStr">
+      <c r="B104" t="n">
+        <v>102</v>
+      </c>
+      <c r="C104" t="n">
+        <v>102</v>
+      </c>
+      <c r="D104" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t>1731366118.9184256</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
+      <c r="F104" t="inlineStr">
         <is>
           <t>1731366120.0074701</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
+      <c r="G104" t="inlineStr">
         <is>
           <t>./test_images/MXI1731366118.9184256.png</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
+      <c r="H104" t="inlineStr">
         <is>
           <t>./test_images/MXI1731366120.0074701.png</t>
         </is>
       </c>
-      <c r="G104" t="inlineStr">
+      <c r="I104" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I104" t="n">
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
         <v>2907.6</v>
       </c>
-      <c r="J104" t="n">
+      <c r="L104" t="n">
         <v>2904</v>
       </c>
-      <c r="K104" t="n">
+      <c r="M104" t="n">
         <v>3.599999999999909</v>
+      </c>
+      <c r="N104" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="B105" t="inlineStr">
+      <c r="B105" t="n">
+        <v>103</v>
+      </c>
+      <c r="C105" t="n">
+        <v>103</v>
+      </c>
+      <c r="D105" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t>1731366120.6522102</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr"/>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1731366120.6522102.png</t>
         </is>
       </c>
       <c r="F105" t="inlineStr"/>
       <c r="G105" t="inlineStr">
         <is>
+          <t>./test_images/MXI1731366120.6522102.png</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I105" t="n">
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
         <v>2898.6</v>
       </c>
-      <c r="J105" t="n">
-        <v>2898.6</v>
-      </c>
-      <c r="K105" t="n">
-        <v>0</v>
+      <c r="L105" t="n">
+        <v>2888</v>
+      </c>
+      <c r="M105" t="n">
+        <v>-10.59999999999991</v>
+      </c>
+      <c r="N105" t="n">
+        <v>-0.37</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="B106" t="inlineStr">
+      <c r="B106" t="n">
+        <v>104</v>
+      </c>
+      <c r="C106" t="n">
+        <v>104</v>
+      </c>
+      <c r="D106" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>1731366122.4374459</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
+      <c r="F106" t="inlineStr">
         <is>
           <t>1731366122.625497</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
+      <c r="G106" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731366122.4374459.png</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
+      <c r="H106" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731366122.625497.png</t>
         </is>
       </c>
-      <c r="G106" t="inlineStr">
+      <c r="I106" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I106" t="n">
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
         <v>11.884</v>
       </c>
-      <c r="J106" t="n">
+      <c r="L106" t="n">
         <v>11.893</v>
       </c>
-      <c r="K106" t="n">
+      <c r="M106" t="n">
         <v>0.009000000000000341</v>
+      </c>
+      <c r="N106" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="B107" t="inlineStr">
+      <c r="B107" t="n">
+        <v>105</v>
+      </c>
+      <c r="C107" t="n">
+        <v>105</v>
+      </c>
+      <c r="D107" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
+      <c r="E107" t="inlineStr">
         <is>
           <t>1731366123.8182292</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
+      <c r="F107" t="inlineStr">
         <is>
           <t>1731366125.122954</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
+      <c r="G107" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731366123.8182292.png</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
+      <c r="H107" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731366125.122954.png</t>
         </is>
       </c>
-      <c r="G107" t="inlineStr">
+      <c r="I107" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I107" t="n">
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
         <v>11.904</v>
       </c>
-      <c r="J107" t="n">
+      <c r="L107" t="n">
         <v>11.905</v>
       </c>
-      <c r="K107" t="n">
+      <c r="M107" t="n">
         <v>-0.0009999999999994458</v>
+      </c>
+      <c r="N107" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
-      <c r="B108" t="inlineStr">
+      <c r="B108" t="n">
+        <v>106</v>
+      </c>
+      <c r="C108" t="n">
+        <v>106</v>
+      </c>
+      <c r="D108" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
+      <c r="E108" t="inlineStr">
         <is>
           <t>1731366125.6538746</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr"/>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>./test_images/RUAL1731366125.6538746.png</t>
         </is>
       </c>
       <c r="F108" t="inlineStr"/>
       <c r="G108" t="inlineStr">
         <is>
+          <t>./test_images/RUAL1731366125.6538746.png</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I108" t="n">
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
         <v>11.923</v>
       </c>
-      <c r="J108" t="n">
-        <v>11.923</v>
-      </c>
-      <c r="K108" t="n">
-        <v>0</v>
+      <c r="L108" t="n">
+        <v>11.96</v>
+      </c>
+      <c r="M108" t="n">
+        <v>-0.03700000000000081</v>
+      </c>
+      <c r="N108" t="n">
+        <v>-0.31</v>
       </c>
     </row>
   </sheetData>
@@ -5574,7 +6550,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5603,6 +6579,16 @@
           <t>part</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -5611,13 +6597,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>83</v>
+        <v>41.5</v>
       </c>
       <c r="C2" t="n">
         <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>10.375</v>
+        <v>5.1875</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.6599999999999999</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="3">
@@ -5635,6 +6627,12 @@
       <c r="D3" t="n">
         <v>0.6571428571428442</v>
       </c>
+      <c r="E3" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -5643,13 +6641,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4400000000000048</v>
+        <v>0.3700000000000045</v>
       </c>
       <c r="C4" t="n">
         <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>0.06285714285714354</v>
+        <v>0.0528571428571435</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.7500000000000001</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="5">
@@ -5659,13 +6663,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.199999999999989</v>
+        <v>-2.500000000000057</v>
       </c>
       <c r="C5" t="n">
         <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1999999999999981</v>
+        <v>-0.4166666666666761</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-0.51</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="6">
@@ -5675,13 +6685,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6999999999999886</v>
+        <v>0.1899999999999977</v>
       </c>
       <c r="C6" t="n">
         <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1166666666666648</v>
+        <v>0.03166666666666629</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="7">
@@ -5691,13 +6707,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3599999999999994</v>
+        <v>0.3199999999999932</v>
       </c>
       <c r="C7" t="n">
         <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>0.05999999999999991</v>
+        <v>0.0533333333333322</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="8">
@@ -5715,6 +6737,12 @@
       <c r="D8" t="n">
         <v>0.1199999999999903</v>
       </c>
+      <c r="E8" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -5723,13 +6751,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1500000000000057</v>
+        <v>0.01000000000000512</v>
       </c>
       <c r="C9" t="n">
         <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>0.03000000000000114</v>
+        <v>0.002000000000001023</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.01999999999999996</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -5747,6 +6781,12 @@
       <c r="D10" t="n">
         <v>-0.9200000000000272</v>
       </c>
+      <c r="E10" t="n">
+        <v>-0.46</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.09</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -5755,13 +6795,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8.599999999999454</v>
+        <v>-2.000000000000455</v>
       </c>
       <c r="C11" t="n">
         <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>1.719999999999891</v>
+        <v>-0.4000000000000909</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="12">
@@ -5771,13 +6817,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.07699999999999818</v>
+        <v>-0.1069999999999993</v>
       </c>
       <c r="C12" t="n">
         <v>5</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.01539999999999964</v>
+        <v>-0.02139999999999986</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-0.5299999999999999</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-0.11</v>
       </c>
     </row>
     <row r="13">
@@ -5787,13 +6839,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.860000000000014</v>
+        <v>0.4499999999999886</v>
       </c>
       <c r="C13" t="n">
         <v>5</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3720000000000027</v>
+        <v>0.08999999999999772</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.1899999999999999</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="14">
@@ -5803,13 +6861,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.0002000000000000057</v>
+        <v>-0.0001400000000000012</v>
       </c>
       <c r="C14" t="n">
         <v>5</v>
       </c>
       <c r="D14" t="n">
-        <v>4.000000000000115e-05</v>
+        <v>-2.800000000000025e-05</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-0.15</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="15">
@@ -5819,13 +6883,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3.540000000000049</v>
+        <v>3.120000000000061</v>
       </c>
       <c r="C15" t="n">
         <v>5</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7080000000000097</v>
+        <v>0.6240000000000123</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.45</v>
       </c>
     </row>
     <row r="16">
@@ -5835,13 +6905,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.439999999999998</v>
+        <v>-0.6000000000000227</v>
       </c>
       <c r="C16" t="n">
         <v>4</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3599999999999994</v>
+        <v>-0.1500000000000057</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-0.22</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="17">
@@ -5851,13 +6927,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>-2.899999999999977</v>
       </c>
       <c r="C17" t="n">
         <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>-0.7249999999999943</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-0.44</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-0.11</v>
       </c>
     </row>
     <row r="18">
@@ -5867,13 +6949,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9399999999999906</v>
+        <v>0.8799999999999883</v>
       </c>
       <c r="C18" t="n">
         <v>4</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2349999999999977</v>
+        <v>0.2199999999999971</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.39</v>
       </c>
     </row>
     <row r="19">
@@ -5883,13 +6971,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.8900000000000148</v>
+        <v>-0.1699999999999875</v>
       </c>
       <c r="C19" t="n">
         <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>0.2966666666666716</v>
+        <v>-0.0566666666666625</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-0.11</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="20">
@@ -5899,13 +6993,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.008000000000000895</v>
+        <v>-0.02899999999999991</v>
       </c>
       <c r="C20" t="n">
         <v>3</v>
       </c>
       <c r="D20" t="n">
-        <v>0.002666666666666965</v>
+        <v>-0.009666666666666638</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-0.24</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="21">
@@ -5915,13 +7015,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.006999999999999673</v>
+        <v>0.005999999999998451</v>
       </c>
       <c r="C21" t="n">
         <v>3</v>
       </c>
       <c r="D21" t="n">
-        <v>0.002333333333333224</v>
+        <v>0.001999999999999484</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="22">
@@ -5931,13 +7037,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.4299999999999926</v>
+        <v>-0.2800000000000011</v>
       </c>
       <c r="C22" t="n">
         <v>2</v>
       </c>
       <c r="D22" t="n">
-        <v>0.2149999999999963</v>
+        <v>-0.1400000000000006</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-0.29</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-0.15</v>
       </c>
     </row>
     <row r="23">
@@ -5947,13 +7059,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.230000000000004</v>
+        <v>-0.6000000000000085</v>
       </c>
       <c r="C23" t="n">
         <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.115000000000002</v>
+        <v>-0.3000000000000043</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-0.6299999999999999</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-0.31</v>
       </c>
     </row>
     <row r="24">
@@ -5969,6 +7087,10 @@
         <v>0</v>
       </c>
       <c r="D24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
